--- a/resources/datasets/Student Survey - July.xlsx
+++ b/resources/datasets/Student Survey - July.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Swinburne University\Technology Design Project\DataAnalytics 2023S2\Dataset\SchoolData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dinuka\Masters\Swinburne\Sem 02\TDP\Assignments\SchoolData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE81FA9-3652-4B2A-9F93-47F88F626B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="13530"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
     <sheet name="survey variables" sheetId="12" r:id="rId2"/>
     <sheet name="affiliations" sheetId="2" r:id="rId3"/>
-    <sheet name="participantsNov" sheetId="3" r:id="rId4"/>
+    <sheet name="participants" sheetId="3" r:id="rId4"/>
     <sheet name="responses" sheetId="4" r:id="rId5"/>
     <sheet name="net_0_Friends" sheetId="5" r:id="rId6"/>
     <sheet name="net_1_Influential" sheetId="6" r:id="rId7"/>
@@ -25,7 +26,20 @@
     <sheet name="net_5_Disrespect" sheetId="10" r:id="rId11"/>
     <sheet name="net_affiliation_0_SchoolActivit" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4241,7 +4255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4963,7 +4977,7 @@
     <xf numFmtId="0" fontId="73" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5245,10 +5259,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -6277,7 +6291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9180,7 +9194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10787,7 +10801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14130,7 +14144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14454,7 +14468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15416,10 +15430,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -21566,7 +21580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK175"/>
   <sheetViews>
     <sheetView topLeftCell="Q4" workbookViewId="0">
@@ -41360,7 +41374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51439,7 +51453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53926,7 +53940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -55869,7 +55883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
